--- a/Superficie_pop_2018.xlsx
+++ b/Superficie_pop_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C30878-74CC-494A-B9C5-4FB7F0C59F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297E2F8-3894-4943-937D-FB570E2FE733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,36 +305,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -398,16 +368,46 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -424,12 +424,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44DAD45A-343F-494F-835B-85F73F4D6171}" name="Tabella1" displayName="Tabella1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44DAD45A-343F-494F-835B-85F73F4D6171}" name="Tabella1" displayName="Tabella1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C19" xr:uid="{44DAD45A-343F-494F-835B-85F73F4D6171}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F831B4DE-38BF-2C44-A2B2-3B3B5374D7E3}" name="Région" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A1705FF4-CCAB-3246-8D97-B07C1BF34A7A}" name="Superficie (km² )" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9BB62309-48A0-EF4D-9A10-641E4A82B2D1}" name="Population (habitants)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F831B4DE-38BF-2C44-A2B2-3B3B5374D7E3}" name="Région" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A1705FF4-CCAB-3246-8D97-B07C1BF34A7A}" name="Superficie (km² )" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9BB62309-48A0-EF4D-9A10-641E4A82B2D1}" name="Population (habitants)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,7 +735,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M19" sqref="C19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Superficie_pop_2018.xlsx
+++ b/Superficie_pop_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D297E2F8-3894-4943-937D-FB570E2FE733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358C8EE-CFA8-2847-AF56-C385C5D2F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Région</t>
   </si>
@@ -28,163 +28,55 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>69 711</t>
-  </si>
-  <si>
-    <t>7 994 459</t>
-  </si>
-  <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>47 784</t>
-  </si>
-  <si>
-    <t>2 807 807</t>
-  </si>
-  <si>
     <t>Bretagne</t>
   </si>
   <si>
-    <t>27 208</t>
-  </si>
-  <si>
-    <t>3 335 414</t>
-  </si>
-  <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>39 151</t>
-  </si>
-  <si>
-    <t>2 572 853</t>
-  </si>
-  <si>
     <t>Corse</t>
   </si>
   <si>
-    <t>8 680</t>
-  </si>
-  <si>
-    <t>338 554</t>
-  </si>
-  <si>
     <t>Grand Est</t>
   </si>
   <si>
-    <t>57 433</t>
-  </si>
-  <si>
-    <t>5 550 389</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1 703</t>
-  </si>
-  <si>
-    <t>387 629</t>
-  </si>
-  <si>
     <t>Guyane</t>
   </si>
   <si>
-    <t>83 534</t>
-  </si>
-  <si>
-    <t>276 128</t>
-  </si>
-  <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>31 813</t>
-  </si>
-  <si>
-    <t>6 004 108</t>
-  </si>
-  <si>
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>12 011</t>
-  </si>
-  <si>
-    <t>12 213 447</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>1 128</t>
-  </si>
-  <si>
-    <t>368 783</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>2 504</t>
-  </si>
-  <si>
-    <t>259 621</t>
-  </si>
-  <si>
     <t>Normandie</t>
   </si>
   <si>
-    <t>29 906</t>
-  </si>
-  <si>
-    <t>3 327 477</t>
-  </si>
-  <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>83 809</t>
-  </si>
-  <si>
-    <t>5 979 778</t>
-  </si>
-  <si>
     <t>Occitanie</t>
   </si>
   <si>
-    <t>72 724</t>
-  </si>
-  <si>
-    <t>5 885 496</t>
-  </si>
-  <si>
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>32 082</t>
-  </si>
-  <si>
-    <t>3 781 423</t>
-  </si>
-  <si>
     <t>Réunion</t>
   </si>
   <si>
-    <t>2 505</t>
-  </si>
-  <si>
-    <t>855 961</t>
-  </si>
-  <si>
     <t>Sud-Provence-Alpes-Côte d’Azur</t>
-  </si>
-  <si>
-    <t>31 400</t>
-  </si>
-  <si>
-    <t>5 052 832</t>
   </si>
   <si>
     <t>Sources :</t>
@@ -735,7 +627,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="C19:M19"/>
+      <selection activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -750,21 +642,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>69711</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7994459</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -783,13 +675,13 @@
     </row>
     <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47784</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2807807</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="8"/>
@@ -808,13 +700,13 @@
     </row>
     <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27208</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3335414</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -833,13 +725,13 @@
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>39151</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2572853</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
@@ -858,13 +750,13 @@
     </row>
     <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8680</v>
+      </c>
+      <c r="C6" s="2">
+        <v>338554</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -883,13 +775,13 @@
     </row>
     <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>57433</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5550389</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
@@ -908,13 +800,13 @@
     </row>
     <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1703</v>
+      </c>
+      <c r="C8" s="2">
+        <v>387629</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
@@ -933,13 +825,13 @@
     </row>
     <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>83534</v>
+      </c>
+      <c r="C9" s="2">
+        <v>276128</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
@@ -958,13 +850,13 @@
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>31813</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6004108</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
@@ -983,13 +875,13 @@
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12011</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12213447</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
@@ -1008,13 +900,13 @@
     </row>
     <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1128</v>
+      </c>
+      <c r="C12" s="2">
+        <v>368783</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
@@ -1033,13 +925,13 @@
     </row>
     <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2504</v>
+      </c>
+      <c r="C13" s="2">
+        <v>259621</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
@@ -1058,13 +950,13 @@
     </row>
     <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29906</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3327477</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
@@ -1083,13 +975,13 @@
     </row>
     <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>83809</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5979778</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
@@ -1108,13 +1000,13 @@
     </row>
     <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>72724</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5885496</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
@@ -1133,13 +1025,13 @@
     </row>
     <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>32082</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3781423</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
@@ -1158,13 +1050,13 @@
     </row>
     <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2505</v>
+      </c>
+      <c r="C18" s="2">
+        <v>855961</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
@@ -1183,13 +1075,13 @@
     </row>
     <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5052832</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
@@ -1208,10 +1100,10 @@
     </row>
     <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
